--- a/medicine/Premiers secours et secourisme/Pompier_volontaire/Pompier_volontaire.xlsx
+++ b/medicine/Premiers secours et secourisme/Pompier_volontaire/Pompier_volontaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un pompier volontaire est un pompier dont l'activité de pompier n'est pas le travail principal. En effet, à la  différence du pompier professionnel, le pompier volontaire possède, la plupart du temps, un emploi principal (salarié, artisan, commerçant, profession libérale ou même pompier professionnel) et exerce les activités de pompier le plus souvent en dehors de ses heures de travail. Ses heures peuvent être indemnisées ou non en fonction du pays voire parfois du service où le pompier exerce.
 </t>
@@ -511,7 +523,9 @@
           <t>Les deux types de gardes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gardes se font soit au sein de la caserne (garde casernée) soit à la maison (astreinte). Dans le second cas, le pompier est alors rappelé en caserne pour départ en intervention via un bipeur ou parfois par GSM.
 </t>
@@ -542,7 +556,9 @@
           <t>Les statuts juridiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le statut de pompier volontaire n'est pas reconnu[pas clair] dans tous les pays. Cela varie au cas par cas.
 </t>
@@ -575,15 +591,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Belgique
-Il existe 12 000 pompiers volontaires sur les 18 000 pompiers belges (env. 75 %). Ils sont pour la plupart et pompiers et ambulanciers, rémunérés en fonction de la commune dans laquelle ils travaillent. En effet les services sont encore communaux (en 2013) mais cela changera dès 2014 avec l'intégration du nouveau système de zones de secours dû à la réforme de la sécurité civile.
+          <t xml:space="preserve"> Belgique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe 12 000 pompiers volontaires sur les 18 000 pompiers belges (env. 75 %). Ils sont pour la plupart et pompiers et ambulanciers, rémunérés en fonction de la commune dans laquelle ils travaillent. En effet les services sont encore communaux (en 2013) mais cela changera dès 2014 avec l'intégration du nouveau système de zones de secours dû à la réforme de la sécurité civile.
 En Belgique la plupart des gardes des volontaires se fait hors caserne mais quelques exceptions existent.
 Les missions assurées, les formations, le recrutement, les grades et les responsabilités sont identiques à ceux des professionnels. Pour montrer que le métier est le même, on propose de ne plus parler de pompiers professionnels ou volontaires mais bien de pompiers « à temps plein » et « à temps partiel ».
 Les pompiers volontaires belges n'ont pas de statut légal et sont donc employés communaux. Cela devrait également changer en 2014 avec la réforme, dans laquelle un statut officiel est créé.
- Canada
- États-Unis
- France
-En France, les gardes se font en caserne ou à la maison.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pompier_volontaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompier_volontaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le système des pompiers volontaires dans les différents pays</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les gardes se font en caserne ou à la maison.
 Les pompiers volontaires représentent plus de 80 % des pompiers sur le territoire.
 Il est possible de devenir pompier volontaire à partir de 16 ans, pour cela il faut se renseigner sur les démarches sur le site web du Service départemental d'incendie et de secours de son département de résidence.
 Le plus souvent il faut rencontrer un chef de centre d'incendie et de secours et lui transmettre plusieurs documents  :
@@ -591,10 +645,45 @@
 Lettre de motivation
 Attestation de Prévention et secours civiques de niveau 1 (Facultatif)
 Après entretien et souvent quelques sélections physiques et après avoir présenté un certificat médical, il est possible de s'engager.
-Un nouveau plan d'action a été mené par le gouvernement en 2019 visant à recruter de nouveaux pompiers volontaires[1].
- Luxembourg
-Tous les sapeurs-pompiers du Grand-Duché de Luxembourg sont volontaires à l'exception de ceux des centres d'incendie et de secours (CIS) de la ville de Luxembourg et de l'aéroport de Luxembourg-Findel.
- Suisse</t>
+Un nouveau plan d'action a été mené par le gouvernement en 2019 visant à recruter de nouveaux pompiers volontaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pompier_volontaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompier_volontaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le système des pompiers volontaires dans les différents pays</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Luxembourg</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les sapeurs-pompiers du Grand-Duché de Luxembourg sont volontaires à l'exception de ceux des centres d'incendie et de secours (CIS) de la ville de Luxembourg et de l'aéroport de Luxembourg-Findel.
+</t>
         </is>
       </c>
     </row>
